--- a/ALNS/evrptw_instances/c101C5.xlsx
+++ b/ALNS/evrptw_instances/c101C5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EgleS\Desktop\Thesis\Code\ALNS\evrptw_instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE13C016-D425-438C-8C26-91FF510DC780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1145806-073B-4DA4-9AB2-A56ACC8EE961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locations" sheetId="1" r:id="rId1"/>
@@ -958,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
@@ -1233,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,7 +1258,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>75</v>
+        <v>77.75</v>
       </c>
       <c r="B2">
         <v>200</v>
